--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value124.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value124.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.001927645820264</v>
+        <v>0.3031945824623108</v>
       </c>
       <c r="B1">
-        <v>1.758289518151243</v>
+        <v>0.8837385177612305</v>
       </c>
       <c r="C1">
-        <v>4.013528971148354</v>
+        <v>2.845041513442993</v>
       </c>
       <c r="D1">
-        <v>2.472238786979816</v>
+        <v>2.687310934066772</v>
       </c>
       <c r="E1">
-        <v>1.027174207621697</v>
+        <v>1.115850806236267</v>
       </c>
     </row>
   </sheetData>
